--- a/Actividad 1/L01_Conceptos_Estadistica.xlsx
+++ b/Actividad 1/L01_Conceptos_Estadistica.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEF3B98-37FB-4E19-97F6-A0AF9ED0D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A925C651-9DBB-4C14-9875-DDC187FE4D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad 1" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>a) ¿Cuál es la muestra que se ha considerado para obtener la información?</t>
   </si>
@@ -147,6 +147,42 @@
   </si>
   <si>
     <t>c) Realice una conclusión breve que pueda extraer de la observación del gráfico.</t>
+  </si>
+  <si>
+    <t>índice de libertad de prensa: cuantitativa continua</t>
+  </si>
+  <si>
+    <t>mayor índice, menor libertad de prensa</t>
+  </si>
+  <si>
+    <t>se observa que Costa Rica es el país con mayor liberad de prensa con 14,01 de puntuación, y Cuba es el país con menor libertad de prensa con un 68,90 puntos. Otra observación es que Chile ocupa el 3er lugar en países con mayor libertad de prensa.</t>
+  </si>
+  <si>
+    <t>Países de América Latina</t>
+  </si>
+  <si>
+    <t>muestra: 10 países de america latina</t>
+  </si>
+  <si>
+    <t>2.000 usuarios de trabajando.com</t>
+  </si>
+  <si>
+    <t>circular o  de torta</t>
+  </si>
+  <si>
+    <t>enfermedades relacionadas con el trabajo: cualitativa nominal</t>
+  </si>
+  <si>
+    <t>se observa que las enfermedades relacionadas con el trabajo que superan el 50% de los encuestados son estrés (32%) y ansiedad (25%) y que solo el 18% de los encuestados informó no presenar alguna de estas enfermedades</t>
+  </si>
+  <si>
+    <t>Países con mayor reserva y producción de litio</t>
+  </si>
+  <si>
+    <t>reserva de litio en miles de toneladas y producción de litio en miles de toneladas (ambas cuantitativas continuas)</t>
+  </si>
+  <si>
+    <t>Se observa que Chile es el país con mayor reserva de litio en el año 2016 y Australia tiene la menor reserva, sin embargo, es el país con mayor producción y China es el país con menor producción de litio.</t>
   </si>
 </sst>
 </file>
@@ -588,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -615,7 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -721,9 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -886,9 +918,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -922,17 +951,66 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2101,15 +2179,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>399914</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115182</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2139,8 +2217,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="409575" y="1038226"/>
-          <a:ext cx="7162664" cy="4305300"/>
+          <a:off x="676275" y="1000126"/>
+          <a:ext cx="6134100" cy="3687056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2549,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,56 +2638,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="63" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2624,18 +2702,18 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:12" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="66"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="67"/>
+    <row r="61" spans="1:12" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="64"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="65"/>
     </row>
     <row r="62" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
@@ -2650,290 +2728,290 @@
       <c r="K62" s="14"/>
     </row>
     <row r="63" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="23"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="22"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="71"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="69"/>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="35"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="34"/>
       <c r="L65" s="17"/>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="35"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="34"/>
       <c r="L66" s="17"/>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
       <c r="L67" s="17"/>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
       <c r="L68" s="17"/>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="71"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="69"/>
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
       <c r="L70" s="19"/>
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
       <c r="L71" s="17"/>
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
       <c r="L72" s="17"/>
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
       <c r="L73" s="17"/>
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
       <c r="L74" s="17"/>
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="69" t="s">
+      <c r="B76" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
-      <c r="K76" s="71"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="69"/>
       <c r="L76" s="17"/>
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="62"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
       <c r="L77" s="17"/>
       <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
       <c r="L78" s="17"/>
       <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="62"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
       <c r="L79" s="17"/>
       <c r="M79" s="4"/>
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
       <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="36"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
@@ -2942,7 +3020,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="37"/>
+      <c r="K82" s="36"/>
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -2962,216 +3040,216 @@
     </row>
     <row r="84" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
-      <c r="B84" s="69" t="s">
+      <c r="B84" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="70"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
-      <c r="K84" s="71"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="69"/>
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
       <c r="L85" s="16"/>
       <c r="M85" s="5"/>
     </row>
     <row r="86" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="35"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="34"/>
       <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="35"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="34"/>
       <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="35"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="34"/>
       <c r="L88" s="4"/>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="68"/>
-      <c r="I89" s="68"/>
-      <c r="J89" s="68"/>
-      <c r="K89" s="35"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="34"/>
       <c r="L89" s="4"/>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="68"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="68"/>
-      <c r="J90" s="68"/>
-      <c r="K90" s="35"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="34"/>
       <c r="L90" s="4"/>
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="68"/>
-      <c r="H91" s="68"/>
-      <c r="I91" s="68"/>
-      <c r="J91" s="68"/>
-      <c r="K91" s="35"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="34"/>
       <c r="L91" s="4"/>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="68"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="35"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="34"/>
       <c r="L92" s="4"/>
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="35"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="34"/>
       <c r="L93" s="4"/>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
       <c r="L94" s="4"/>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
       <c r="L95" s="4"/>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
       <c r="L96" s="4"/>
     </row>
     <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
       <c r="L97" s="4"/>
     </row>
     <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
       <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -3207,10 +3285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A7:K58"/>
+  <dimension ref="A7:P58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:J53"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3225,7 +3303,7 @@
     <row r="12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -3236,7 +3314,7 @@
       <c r="I34" s="18"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -3247,7 +3325,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -3258,20 +3336,20 @@
       <c r="I36" s="18"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="90" t="s">
+    <row r="37" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="92"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="90"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -3282,7 +3360,7 @@
       <c r="I38" s="18"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -3293,46 +3371,60 @@
       <c r="I39" s="18"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="93" t="s">
+    <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="95"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="93"/>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -3344,46 +3436,48 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="69" t="s">
+    <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="71"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="69"/>
+    </row>
+    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
+      <c r="B45" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="72"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="75"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3395,90 +3489,128 @@
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
     </row>
-    <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="93" t="s">
+    <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="95"/>
-    </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="72"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="74"/>
-    </row>
-    <row r="50" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="75"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="77"/>
-    </row>
-    <row r="53" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="93" t="s">
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="93"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="72"/>
+    </row>
+    <row r="50" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="75"/>
+    </row>
+    <row r="53" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="95"/>
-    </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="72"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="74"/>
-    </row>
-    <row r="55" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="75"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="77"/>
-    </row>
-    <row r="58" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B58" s="20"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="69"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="133"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B58" s="138"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="K41:O42"/>
+    <mergeCell ref="B45:J46"/>
+    <mergeCell ref="B54:J57"/>
     <mergeCell ref="B37:J37"/>
     <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B54:J55"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J42"/>
     <mergeCell ref="B44:J44"/>
@@ -3497,7 +3629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B74" sqref="B74:J80"/>
     </sheetView>
   </sheetViews>
@@ -3517,30 +3649,30 @@
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="61"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3551,63 +3683,63 @@
     <row r="31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="27"/>
       <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="27"/>
       <c r="Q34" s="4"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
     </row>
     <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
@@ -3620,39 +3752,39 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
@@ -3661,33 +3793,33 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="15"/>
-      <c r="H43" s="29"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -3697,101 +3829,101 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="30"/>
+      <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="98"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="98"/>
-      <c r="J50" s="98"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="29"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="28"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="29"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="28"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
@@ -3801,65 +3933,65 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="30"/>
+      <c r="H55" s="29"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="98"/>
-      <c r="I57" s="98"/>
-      <c r="J57" s="98"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="98"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="98"/>
-      <c r="I58" s="98"/>
-      <c r="J58" s="98"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="98"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="29"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="28"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
@@ -3870,28 +4002,28 @@
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="96" t="s">
+      <c r="B62" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="96"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
-      <c r="J63" s="97"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
@@ -3903,185 +4035,185 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="99"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="97"/>
+      <c r="J67" s="97"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="99"/>
-      <c r="J68" s="99"/>
+      <c r="B68" s="97"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="97"/>
-      <c r="J71" s="97"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="95"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="96"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="97"/>
-      <c r="J72" s="97"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="95"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="17"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
     </row>
     <row r="76" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="99"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="99"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="97"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="99"/>
+      <c r="B77" s="97"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="97"/>
+      <c r="J77" s="97"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="99"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="99"/>
-      <c r="H78" s="99"/>
-      <c r="I78" s="99"/>
-      <c r="J78" s="99"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="97"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="99"/>
-      <c r="I79" s="99"/>
-      <c r="J79" s="99"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="99"/>
-      <c r="I80" s="99"/>
-      <c r="J80" s="99"/>
+      <c r="B80" s="97"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="97"/>
+      <c r="J80" s="97"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
@@ -4134,57 +4266,57 @@
   <sheetData>
     <row r="1" spans="2:28" s="13" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
-      <c r="K1" s="39"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="40"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="38"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="41"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="40"/>
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,35 +4547,35 @@
       <c r="K33" s="19"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="120" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
@@ -4458,286 +4590,286 @@
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="31"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="45"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="44"/>
     </row>
     <row r="39" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="45"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="44"/>
     </row>
     <row r="40" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
     </row>
     <row r="41" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="33"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="32"/>
     </row>
     <row r="44" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="45"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="45"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="44"/>
     </row>
     <row r="46" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="45"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="44"/>
     </row>
     <row r="47" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="110"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="45"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="44"/>
     </row>
     <row r="48" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="110"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="45"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="44"/>
     </row>
     <row r="49" spans="1:22" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:22" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="33"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:22" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="97" t="s">
+      <c r="B51" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="33"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="32"/>
     </row>
     <row r="52" spans="1:22" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="111"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
     </row>
     <row r="53" spans="1:22" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="114"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
     </row>
     <row r="54" spans="1:22" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="114"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="45"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
     </row>
     <row r="55" spans="1:22" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="114"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="45"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
     </row>
     <row r="56" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="116"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="114"/>
       <c r="K56" s="16"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="116"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="114"/>
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="119"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="117"/>
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -4752,7 +4884,7 @@
       <c r="J59" s="5"/>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G98" s="63"/>
+      <c r="G98" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4779,730 +4911,738 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:AB57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="46" customWidth="1"/>
-    <col min="2" max="16" width="9.140625" style="46"/>
-    <col min="17" max="17" width="4" style="46" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="4.7109375" style="45" customWidth="1"/>
+    <col min="2" max="16" width="9.140625" style="45"/>
+    <col min="17" max="17" width="4" style="45" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="48"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="47"/>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="48"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="47"/>
     </row>
     <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="48"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="47"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="48"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="47"/>
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="47"/>
     </row>
     <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="47"/>
     </row>
     <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="47"/>
     </row>
     <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="47"/>
     </row>
     <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="47"/>
     </row>
     <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="47"/>
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="47"/>
     </row>
     <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="47"/>
     </row>
     <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="47"/>
     </row>
     <row r="17" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="47"/>
     </row>
     <row r="18" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
     </row>
     <row r="19" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB19" s="48"/>
+      <c r="AB19" s="47"/>
     </row>
     <row r="20" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R20" s="126"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="126"/>
-      <c r="W20" s="126"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="126"/>
-      <c r="Z20" s="126"/>
-      <c r="AA20" s="126"/>
-      <c r="AB20" s="48"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="123"/>
+      <c r="AA20" s="123"/>
+      <c r="AB20" s="47"/>
     </row>
     <row r="21" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="126"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="123"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="123"/>
+      <c r="AA21" s="123"/>
     </row>
     <row r="22" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="122"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="119"/>
+      <c r="X24" s="119"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="119"/>
+      <c r="AA24" s="119"/>
     </row>
     <row r="25" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="119"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="119"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="119"/>
     </row>
     <row r="26" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="51"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="51"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="50"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
     </row>
     <row r="30" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="122"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="119"/>
+      <c r="W30" s="119"/>
+      <c r="X30" s="119"/>
+      <c r="Y30" s="119"/>
+      <c r="Z30" s="119"/>
+      <c r="AA30" s="119"/>
     </row>
     <row r="31" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="119"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="119"/>
+      <c r="AA31" s="119"/>
     </row>
     <row r="32" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="119"/>
+      <c r="X32" s="119"/>
+      <c r="Y32" s="119"/>
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="119"/>
     </row>
     <row r="33" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="122"/>
+      <c r="B33" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="119"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="119"/>
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="119"/>
     </row>
     <row r="34" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="122"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="122"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="119"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="119"/>
+      <c r="V34" s="119"/>
+      <c r="W34" s="119"/>
+      <c r="X34" s="119"/>
+      <c r="Y34" s="119"/>
+      <c r="Z34" s="119"/>
+      <c r="AA34" s="119"/>
     </row>
     <row r="35" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="122"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="122"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
+      <c r="T35" s="119"/>
+      <c r="U35" s="119"/>
+      <c r="V35" s="119"/>
+      <c r="W35" s="119"/>
+      <c r="X35" s="119"/>
+      <c r="Y35" s="119"/>
+      <c r="Z35" s="119"/>
+      <c r="AA35" s="119"/>
     </row>
     <row r="36" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="122"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
-      <c r="Y36" s="122"/>
-      <c r="Z36" s="122"/>
-      <c r="AA36" s="122"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="R36" s="119"/>
+      <c r="S36" s="119"/>
+      <c r="T36" s="119"/>
+      <c r="U36" s="119"/>
+      <c r="V36" s="119"/>
+      <c r="W36" s="119"/>
+      <c r="X36" s="119"/>
+      <c r="Y36" s="119"/>
+      <c r="Z36" s="119"/>
+      <c r="AA36" s="119"/>
     </row>
     <row r="37" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="122"/>
-      <c r="T37" s="122"/>
-      <c r="U37" s="122"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
-      <c r="X37" s="122"/>
-      <c r="Y37" s="122"/>
-      <c r="Z37" s="122"/>
-      <c r="AA37" s="122"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="119"/>
+      <c r="T37" s="119"/>
+      <c r="U37" s="119"/>
+      <c r="V37" s="119"/>
+      <c r="W37" s="119"/>
+      <c r="X37" s="119"/>
+      <c r="Y37" s="119"/>
+      <c r="Z37" s="119"/>
+      <c r="AA37" s="119"/>
     </row>
     <row r="38" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="122"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="122"/>
-      <c r="Z38" s="122"/>
-      <c r="AA38" s="122"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="119"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="119"/>
+      <c r="V38" s="119"/>
+      <c r="W38" s="119"/>
+      <c r="X38" s="119"/>
+      <c r="Y38" s="119"/>
+      <c r="Z38" s="119"/>
+      <c r="AA38" s="119"/>
     </row>
     <row r="39" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="123"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="122"/>
-      <c r="Z39" s="122"/>
-      <c r="AA39" s="122"/>
+      <c r="B39" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
+      <c r="U39" s="119"/>
+      <c r="V39" s="119"/>
+      <c r="W39" s="119"/>
+      <c r="X39" s="119"/>
+      <c r="Y39" s="119"/>
+      <c r="Z39" s="119"/>
+      <c r="AA39" s="119"/>
     </row>
     <row r="40" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="123"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="123"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="122"/>
-      <c r="T40" s="122"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="122"/>
-      <c r="W40" s="122"/>
-      <c r="X40" s="122"/>
-      <c r="Y40" s="122"/>
-      <c r="Z40" s="122"/>
-      <c r="AA40" s="122"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="R40" s="119"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="119"/>
+      <c r="U40" s="119"/>
+      <c r="V40" s="119"/>
+      <c r="W40" s="119"/>
+      <c r="X40" s="119"/>
+      <c r="Y40" s="119"/>
+      <c r="Z40" s="119"/>
+      <c r="AA40" s="119"/>
     </row>
     <row r="41" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="122"/>
-      <c r="T41" s="122"/>
-      <c r="U41" s="122"/>
-      <c r="V41" s="122"/>
-      <c r="W41" s="122"/>
-      <c r="X41" s="122"/>
-      <c r="Y41" s="122"/>
-      <c r="Z41" s="122"/>
-      <c r="AA41" s="122"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="119"/>
+      <c r="T41" s="119"/>
+      <c r="U41" s="119"/>
+      <c r="V41" s="119"/>
+      <c r="W41" s="119"/>
+      <c r="X41" s="119"/>
+      <c r="Y41" s="119"/>
+      <c r="Z41" s="119"/>
+      <c r="AA41" s="119"/>
     </row>
     <row r="42" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="122"/>
-      <c r="Y42" s="122"/>
-      <c r="Z42" s="122"/>
-      <c r="AA42" s="122"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="R42" s="119"/>
+      <c r="S42" s="119"/>
+      <c r="T42" s="119"/>
+      <c r="U42" s="119"/>
+      <c r="V42" s="119"/>
+      <c r="W42" s="119"/>
+      <c r="X42" s="119"/>
+      <c r="Y42" s="119"/>
+      <c r="Z42" s="119"/>
+      <c r="AA42" s="119"/>
     </row>
     <row r="43" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="122"/>
-      <c r="Y43" s="122"/>
-      <c r="Z43" s="122"/>
-      <c r="AA43" s="122"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="R43" s="119"/>
+      <c r="S43" s="119"/>
+      <c r="T43" s="119"/>
+      <c r="U43" s="119"/>
+      <c r="V43" s="119"/>
+      <c r="W43" s="119"/>
+      <c r="X43" s="119"/>
+      <c r="Y43" s="119"/>
+      <c r="Z43" s="119"/>
+      <c r="AA43" s="119"/>
     </row>
     <row r="44" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="122"/>
-      <c r="W44" s="122"/>
-      <c r="X44" s="122"/>
-      <c r="Y44" s="122"/>
-      <c r="Z44" s="122"/>
-      <c r="AA44" s="122"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="R44" s="119"/>
+      <c r="S44" s="119"/>
+      <c r="T44" s="119"/>
+      <c r="U44" s="119"/>
+      <c r="V44" s="119"/>
+      <c r="W44" s="119"/>
+      <c r="X44" s="119"/>
+      <c r="Y44" s="119"/>
+      <c r="Z44" s="119"/>
+      <c r="AA44" s="119"/>
     </row>
     <row r="45" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="59"/>
+      <c r="B45" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="58"/>
     </row>
     <row r="46" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="59"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="58"/>
     </row>
     <row r="47" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="121"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="33"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="32"/>
     </row>
     <row r="51" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="33"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="32"/>
     </row>
     <row r="52" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="97"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
     </row>
     <row r="53" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="59"/>
-      <c r="U53" s="59"/>
+      <c r="B53" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="142"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="143"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="58"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="58"/>
+      <c r="U53" s="58"/>
     </row>
     <row r="54" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="121"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="121"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="59"/>
-      <c r="U54" s="59"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="146"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
+      <c r="R54" s="58"/>
+      <c r="S54" s="58"/>
+      <c r="T54" s="58"/>
+      <c r="U54" s="58"/>
     </row>
     <row r="55" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="121"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="59"/>
-      <c r="U55" s="59"/>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="121"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="121"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="121"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
+      <c r="J55" s="146"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="58"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="58"/>
+      <c r="U55" s="58"/>
+    </row>
+    <row r="56" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="144"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
+      <c r="J56" s="146"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="58"/>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="58"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="58"/>
+      <c r="U56" s="58"/>
+    </row>
+    <row r="57" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="147"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5534,8 +5674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:J51"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5574,84 +5714,86 @@
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="129"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="126"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="130"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="132"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="129"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="55"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="95"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="93"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="74"/>
+      <c r="B35" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="75"/>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5667,178 +5809,202 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="71"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
+      <c r="B39" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="140"/>
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="137"/>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="96" t="s">
+      <c r="B45" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="136"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="130"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="96"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="136"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="130"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="72"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="74"/>
-    </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="133"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="135"/>
-    </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="133"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="135"/>
-    </row>
-    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="75"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="77"/>
-    </row>
-    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="140"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -5847,19 +6013,20 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B30:H31"/>
-    <mergeCell ref="B48:J51"/>
     <mergeCell ref="B35:J36"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B38:J38"/>
     <mergeCell ref="B45:J46"/>
+    <mergeCell ref="B47:J51"/>
+    <mergeCell ref="B39:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
